--- a/trunk/Documents/Analysis & Design/UI design/UI design.xlsx
+++ b/trunk/Documents/Analysis & Design/UI design/UI design.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="141">
   <si>
     <t>Quản lý thiết bị</t>
   </si>
@@ -435,6 +435,15 @@
   </si>
   <si>
     <t>Khi select thực đơn từ danh sách, load thông tin thực đơn đã chọn</t>
+  </si>
+  <si>
+    <t>Chờ làm</t>
+  </si>
+  <si>
+    <t>Đã xong</t>
+  </si>
+  <si>
+    <t>Quản lý bàn ăn</t>
   </si>
 </sst>
 </file>
@@ -674,6 +683,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -717,9 +729,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2288,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AH33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,31 +2368,31 @@
     <row r="8" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="36" t="s">
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="36" t="s">
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="36" t="s">
+      <c r="O8" s="38"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="39"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
@@ -2398,31 +2407,31 @@
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="24" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="24" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="24" t="s">
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="24" t="s">
+      <c r="N9" s="26"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27"/>
       <c r="S9" s="1"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -2438,21 +2447,21 @@
     </row>
     <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="29"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="30"/>
       <c r="S10" s="8"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -2468,21 +2477,21 @@
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="32"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="33"/>
       <c r="S11" s="3"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -2656,7 +2665,9 @@
       <c r="U16" s="10"/>
       <c r="V16" s="8"/>
       <c r="W16" s="9"/>
-      <c r="X16" s="8"/>
+      <c r="X16" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
@@ -2996,8 +3007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AH33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AL16" sqref="AL16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3067,31 +3078,31 @@
     <row r="8" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="33" t="s">
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36" t="s">
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="36" t="s">
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="36" t="s">
+      <c r="O8" s="38"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="39"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
@@ -3106,23 +3117,23 @@
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27"/>
       <c r="S9" s="1"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -3138,21 +3149,21 @@
     </row>
     <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="29"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="30"/>
       <c r="S10" s="8"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -3168,21 +3179,21 @@
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="32"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="33"/>
       <c r="S11" s="3"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -3334,7 +3345,9 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="8"/>
+      <c r="S16" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="T16" s="9"/>
       <c r="U16" s="10"/>
       <c r="V16" s="8"/>
@@ -3361,7 +3374,9 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="8"/>
+      <c r="S17" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="T17" s="9"/>
       <c r="U17" s="10"/>
       <c r="V17" s="8"/>
@@ -3643,16 +3658,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
     <mergeCell ref="D9:F11"/>
     <mergeCell ref="G9:I11"/>
     <mergeCell ref="J9:L11"/>
     <mergeCell ref="M9:O11"/>
     <mergeCell ref="P9:R11"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3731,31 +3746,31 @@
     <row r="8" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="36" t="s">
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="33" t="s">
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="37" t="s">
+      <c r="L8" s="35"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="36" t="s">
+      <c r="O8" s="38"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="39"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
@@ -3767,26 +3782,26 @@
     </row>
     <row r="9" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="27" t="s">
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="27" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="24" t="s">
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
@@ -3802,18 +3817,18 @@
     </row>
     <row r="10" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
       <c r="P10" s="17"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
@@ -3832,18 +3847,18 @@
     </row>
     <row r="11" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
@@ -4736,7 +4751,7 @@
   <dimension ref="B3:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:J8"/>
+      <selection activeCell="D14" sqref="D14:Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4806,31 +4821,31 @@
     <row r="8" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="36" t="s">
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="37" t="s">
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="33" t="s">
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="36" t="s">
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="39"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
@@ -4845,21 +4860,21 @@
     </row>
     <row r="9" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="27" t="s">
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -4881,15 +4896,15 @@
     </row>
     <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -4911,15 +4926,15 @@
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -5416,7 +5431,7 @@
   <dimension ref="B3:AH33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI19" sqref="AI19"/>
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5486,31 +5501,31 @@
     <row r="8" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="36" t="s">
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="37" t="s">
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="36" t="s">
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="33" t="s">
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="36"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
@@ -5525,31 +5540,31 @@
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="27" t="s">
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="27" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="27" t="s">
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27"/>
       <c r="S9" s="1"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -5565,21 +5580,21 @@
     </row>
     <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="29"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="30"/>
       <c r="S10" s="8"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -5595,21 +5610,21 @@
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="32"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="33"/>
       <c r="S11" s="3"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -6095,10 +6110,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AG26"/>
+  <dimension ref="B3:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD31" sqref="AD31"/>
+      <selection activeCell="Y18" sqref="Q18:Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6226,101 +6241,86 @@
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
       <c r="AA13" s="10"/>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
-      <c r="D14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="U14" s="13"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="12"/>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="22"/>
+      <c r="Y14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z14" s="22"/>
       <c r="AA14" s="10"/>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="10"/>
+      <c r="D16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="R16" s="13"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="U16" s="13"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="12"/>
       <c r="AA16" s="10"/>
     </row>
     <row r="17" spans="3:27" x14ac:dyDescent="0.25">
@@ -6514,84 +6514,138 @@
     </row>
     <row r="24" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="4"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
     </row>
     <row r="25" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="4"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
     </row>
     <row r="26" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="3"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="3"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="3"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="3"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="10"/>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C27" s="8"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="10"/>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6603,7 +6657,7 @@
   <dimension ref="B3:AG23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6878,7 +6932,7 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
-      <c r="AA13" s="39" t="s">
+      <c r="AA13" s="24" t="s">
         <v>126</v>
       </c>
       <c r="AB13" s="9"/>

--- a/trunk/Documents/Analysis & Design/UI design/UI design.xlsx
+++ b/trunk/Documents/Analysis & Design/UI design/UI design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="22035" windowHeight="10485" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="22032" windowHeight="10488"/>
   </bookViews>
   <sheets>
     <sheet name="Form Main - Tab Gọi món" sheetId="1" r:id="rId1"/>
@@ -2297,18 +2297,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AH33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M9" sqref="M9:O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -2365,7 +2365,7 @@
       <c r="Z7" s="9"/>
       <c r="AA7" s="10"/>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
       <c r="E8" s="34" t="s">
@@ -2405,7 +2405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
       <c r="D9" s="25" t="s">
         <v>32</v>
@@ -2445,7 +2445,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
@@ -2475,7 +2475,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
@@ -2505,7 +2505,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -2535,7 +2535,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
         <v>7</v>
@@ -2579,7 +2579,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
@@ -2611,7 +2611,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
@@ -2643,7 +2643,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
@@ -2675,7 +2675,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
@@ -2705,7 +2705,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
@@ -2735,7 +2735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="10"/>
@@ -2765,7 +2765,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="10"/>
@@ -2792,7 +2792,7 @@
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="10"/>
@@ -2819,7 +2819,7 @@
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="10"/>
@@ -2846,7 +2846,7 @@
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="10"/>
@@ -2873,7 +2873,7 @@
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -2900,7 +2900,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="10"/>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
       <c r="D25" s="3" t="s">
         <v>13</v>
@@ -2929,7 +2929,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="10"/>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C26" s="3"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -2956,27 +2956,27 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="14" t="s">
         <v>19</v>
       </c>
@@ -3011,14 +3011,14 @@
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -3075,7 +3075,7 @@
       <c r="Z7" s="9"/>
       <c r="AA7" s="10"/>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
       <c r="E8" s="37" t="s">
@@ -3115,7 +3115,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
       <c r="D9" s="25" t="s">
         <v>89</v>
@@ -3147,7 +3147,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
@@ -3177,7 +3177,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
@@ -3204,7 +3204,7 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="10"/>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:34" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -3231,7 +3231,7 @@
       <c r="Z12" s="9"/>
       <c r="AA12" s="10"/>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
         <v>7</v>
@@ -3270,7 +3270,7 @@
       <c r="Z13" s="12"/>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
@@ -3299,7 +3299,7 @@
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
@@ -3328,7 +3328,7 @@
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
@@ -3357,7 +3357,7 @@
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
@@ -3386,7 +3386,7 @@
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
@@ -3413,7 +3413,7 @@
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="10"/>
@@ -3440,7 +3440,7 @@
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="10"/>
@@ -3467,7 +3467,7 @@
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="10"/>
@@ -3494,7 +3494,7 @@
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="10"/>
@@ -3521,7 +3521,7 @@
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="10"/>
@@ -3548,7 +3548,7 @@
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -3575,7 +3575,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="10"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
       <c r="D25" s="3" t="s">
         <v>13</v>
@@ -3604,7 +3604,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="10"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C26" s="3"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -3631,43 +3631,43 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="14" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D9:F11"/>
+    <mergeCell ref="G9:I11"/>
+    <mergeCell ref="J9:L11"/>
+    <mergeCell ref="M9:O11"/>
+    <mergeCell ref="P9:R11"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="D9:F11"/>
-    <mergeCell ref="G9:I11"/>
-    <mergeCell ref="J9:L11"/>
-    <mergeCell ref="M9:O11"/>
-    <mergeCell ref="P9:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3682,14 +3682,14 @@
       <selection activeCell="G9" sqref="G9:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -3743,7 +3743,7 @@
       <c r="Z7" s="9"/>
       <c r="AA7" s="10"/>
     </row>
-    <row r="8" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:49" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
       <c r="E8" s="37" t="s">
@@ -3780,7 +3780,7 @@
       <c r="Z8" s="9"/>
       <c r="AA8" s="10"/>
     </row>
-    <row r="9" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
       <c r="D9" s="25" t="s">
         <v>20</v>
@@ -3815,7 +3815,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="10"/>
     </row>
-    <row r="10" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
@@ -3845,7 +3845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:49" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
@@ -3898,7 +3898,7 @@
       <c r="AV11" s="13"/>
       <c r="AW11" s="12"/>
     </row>
-    <row r="12" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -3943,7 +3943,7 @@
       <c r="AV12" s="9"/>
       <c r="AW12" s="10"/>
     </row>
-    <row r="13" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
@@ -3988,7 +3988,7 @@
       <c r="AV13" s="9"/>
       <c r="AW13" s="10"/>
     </row>
-    <row r="14" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
@@ -4033,7 +4033,7 @@
       <c r="AV14" s="7"/>
       <c r="AW14" s="4"/>
     </row>
-    <row r="15" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:49" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
@@ -4080,7 +4080,7 @@
       <c r="AV15" s="7"/>
       <c r="AW15" s="4"/>
     </row>
-    <row r="16" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:49" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
@@ -4107,7 +4107,7 @@
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
     </row>
-    <row r="17" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:49" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
@@ -4134,7 +4134,7 @@
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
     </row>
-    <row r="18" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:49" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
@@ -4164,7 +4164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:49" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="10"/>
@@ -4217,7 +4217,7 @@
       <c r="AV19" s="13"/>
       <c r="AW19" s="12"/>
     </row>
-    <row r="20" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:49" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="10"/>
@@ -4262,7 +4262,7 @@
       <c r="AV20" s="9"/>
       <c r="AW20" s="10"/>
     </row>
-    <row r="21" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:49" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="10"/>
@@ -4307,7 +4307,7 @@
       <c r="AV21" s="9"/>
       <c r="AW21" s="10"/>
     </row>
-    <row r="22" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:49" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="10"/>
@@ -4352,7 +4352,7 @@
       <c r="AV22" s="7"/>
       <c r="AW22" s="4"/>
     </row>
-    <row r="23" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:49" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="10"/>
@@ -4399,7 +4399,7 @@
       <c r="AV23" s="7"/>
       <c r="AW23" s="4"/>
     </row>
-    <row r="24" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:49" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -4426,7 +4426,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="10"/>
     </row>
-    <row r="25" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:49" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
       <c r="D25" s="3" t="s">
         <v>13</v>
@@ -4455,7 +4455,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="10"/>
     </row>
-    <row r="26" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:49" x14ac:dyDescent="0.3">
       <c r="C26" s="3"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -4485,7 +4485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:49" x14ac:dyDescent="0.3">
       <c r="AF27" s="11" t="s">
         <v>29</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="AV27" s="13"/>
       <c r="AW27" s="12"/>
     </row>
-    <row r="28" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:49" x14ac:dyDescent="0.3">
       <c r="AF28" s="8"/>
       <c r="AG28" s="10"/>
       <c r="AH28" s="8"/>
@@ -4533,7 +4533,7 @@
       <c r="AV28" s="9"/>
       <c r="AW28" s="10"/>
     </row>
-    <row r="29" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>15</v>
       </c>
@@ -4556,7 +4556,7 @@
       <c r="AV29" s="9"/>
       <c r="AW29" s="10"/>
     </row>
-    <row r="30" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:49" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
@@ -4579,7 +4579,7 @@
       <c r="AV30" s="7"/>
       <c r="AW30" s="4"/>
     </row>
-    <row r="31" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:49" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -4604,22 +4604,22 @@
       <c r="AV31" s="7"/>
       <c r="AW31" s="4"/>
     </row>
-    <row r="32" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:49" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:49" x14ac:dyDescent="0.3">
       <c r="C33" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:49" x14ac:dyDescent="0.3">
       <c r="AF34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:49" x14ac:dyDescent="0.3">
       <c r="AF35" s="11" t="s">
         <v>30</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="AV35" s="13"/>
       <c r="AW35" s="12"/>
     </row>
-    <row r="36" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:49" x14ac:dyDescent="0.3">
       <c r="AF36" s="8"/>
       <c r="AG36" s="10"/>
       <c r="AH36" s="8"/>
@@ -4667,7 +4667,7 @@
       <c r="AV36" s="9"/>
       <c r="AW36" s="10"/>
     </row>
-    <row r="37" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:49" x14ac:dyDescent="0.3">
       <c r="AF37" s="8"/>
       <c r="AG37" s="10"/>
       <c r="AH37" s="8"/>
@@ -4687,7 +4687,7 @@
       <c r="AV37" s="9"/>
       <c r="AW37" s="10"/>
     </row>
-    <row r="38" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:49" x14ac:dyDescent="0.3">
       <c r="AF38" s="3"/>
       <c r="AG38" s="4"/>
       <c r="AH38" s="3"/>
@@ -4707,7 +4707,7 @@
       <c r="AV38" s="7"/>
       <c r="AW38" s="4"/>
     </row>
-    <row r="39" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:49" x14ac:dyDescent="0.3">
       <c r="AF39" s="3" t="s">
         <v>13</v>
       </c>
@@ -4751,17 +4751,17 @@
   <dimension ref="B3:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:Z14"/>
+      <selection activeCell="E8" sqref="E8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -4818,7 +4818,7 @@
       <c r="Z7" s="9"/>
       <c r="AA7" s="10"/>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
       <c r="E8" s="37" t="s">
@@ -4858,7 +4858,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
       <c r="D9" s="25" t="s">
         <v>31</v>
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
@@ -4924,7 +4924,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
@@ -4954,7 +4954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -4984,7 +4984,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
         <v>7</v>
@@ -5026,7 +5026,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
@@ -5056,7 +5056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
@@ -5086,7 +5086,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
@@ -5113,7 +5113,7 @@
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
@@ -5140,7 +5140,7 @@
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
@@ -5167,7 +5167,7 @@
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="10"/>
@@ -5194,7 +5194,7 @@
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="10"/>
@@ -5221,7 +5221,7 @@
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="10"/>
@@ -5248,7 +5248,7 @@
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="10"/>
@@ -5275,7 +5275,7 @@
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="10"/>
@@ -5302,7 +5302,7 @@
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -5329,7 +5329,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="10"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
       <c r="D25" s="3" t="s">
         <v>13</v>
@@ -5358,7 +5358,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="10"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C26" s="3"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -5385,27 +5385,27 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="14" t="s">
         <v>19</v>
       </c>
@@ -5430,18 +5430,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -5498,7 +5498,7 @@
       <c r="Z7" s="9"/>
       <c r="AA7" s="10"/>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
       <c r="E8" s="37" t="s">
@@ -5538,7 +5538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
       <c r="D9" s="25" t="s">
         <v>2</v>
@@ -5578,7 +5578,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
@@ -5608,7 +5608,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
@@ -5638,7 +5638,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
@@ -5698,7 +5698,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
@@ -5728,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
@@ -5758,7 +5758,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
@@ -5788,7 +5788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
@@ -5818,7 +5818,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
@@ -5845,7 +5845,7 @@
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
@@ -5872,7 +5872,7 @@
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
@@ -5899,7 +5899,7 @@
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
@@ -5926,7 +5926,7 @@
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
@@ -5953,7 +5953,7 @@
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
@@ -5980,7 +5980,7 @@
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
@@ -6007,7 +6007,7 @@
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
       <c r="D25" s="3"/>
       <c r="E25" s="7"/>
@@ -6034,7 +6034,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="10"/>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C26" s="3"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -6061,27 +6061,27 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="14" t="s">
         <v>19</v>
       </c>
@@ -6116,14 +6116,14 @@
       <selection activeCell="Y18" sqref="Q18:Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -6174,7 +6174,7 @@
       <c r="Z7" s="9"/>
       <c r="AA7" s="10"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
       <c r="D8" t="s">
         <v>72</v>
@@ -6195,11 +6195,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
       <c r="AA9" s="10"/>
     </row>
-    <row r="10" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
       <c r="D10" t="s">
         <v>73</v>
@@ -6217,11 +6217,11 @@
       <c r="W10" s="22"/>
       <c r="AA10" s="10"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="AA11" s="10"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="D12" t="s">
         <v>76</v>
@@ -6239,7 +6239,7 @@
       <c r="W12" s="22"/>
       <c r="AA12" s="10"/>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -6251,7 +6251,7 @@
       <c r="W13" s="9"/>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
       <c r="D14" t="s">
         <v>87</v>
@@ -6278,11 +6278,11 @@
       <c r="Z14" s="22"/>
       <c r="AA14" s="10"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="AA15" s="10"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
         <v>78</v>
@@ -6323,7 +6323,7 @@
       <c r="Z16" s="12"/>
       <c r="AA16" s="10"/>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
@@ -6350,7 +6350,7 @@
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
@@ -6377,7 +6377,7 @@
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
@@ -6404,7 +6404,7 @@
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
     </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
@@ -6431,7 +6431,7 @@
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
@@ -6458,7 +6458,7 @@
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
@@ -6485,7 +6485,7 @@
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
@@ -6512,7 +6512,7 @@
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
@@ -6539,7 +6539,7 @@
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
@@ -6566,7 +6566,7 @@
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C26" s="8"/>
       <c r="D26" s="3"/>
       <c r="E26" s="7"/>
@@ -6593,7 +6593,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="10"/>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C27" s="8"/>
       <c r="D27" s="3"/>
       <c r="E27" s="7"/>
@@ -6620,7 +6620,7 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="10"/>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C28" s="3"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -6660,14 +6660,14 @@
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>113</v>
       </c>
@@ -6698,7 +6698,7 @@
       <c r="AB5" s="21"/>
       <c r="AC5" s="22"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>110</v>
       </c>
@@ -6729,7 +6729,7 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>95</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
         <v>96</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8" t="s">
         <v>97</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C11" s="8" t="s">
         <v>98</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C12" s="8" t="s">
         <v>99</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C13" s="8" t="s">
         <v>100</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -6972,7 +6972,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -7015,7 +7015,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -7046,7 +7046,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -7077,7 +7077,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -7108,7 +7108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -7139,7 +7139,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -7170,7 +7170,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C21" s="3"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -7201,12 +7201,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.3">
       <c r="AF22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.3">
       <c r="AG23" t="s">
         <v>125</v>
       </c>
@@ -7225,14 +7225,14 @@
       <selection activeCell="AG24" sqref="AG24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>113</v>
       </c>
@@ -7251,7 +7251,7 @@
       <c r="P5" s="21"/>
       <c r="Q5" s="22"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="AF6" t="s">
         <v>39</v>
       </c>
@@ -7273,7 +7273,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -7293,7 +7293,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
         <v>128</v>
@@ -7312,7 +7312,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -7332,7 +7332,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
         <v>129</v>
@@ -7351,7 +7351,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -7371,14 +7371,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
       <c r="Q13" s="10"/>
       <c r="AF13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -7398,7 +7398,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="D15" s="11" t="s">
         <v>128</v>
@@ -7422,7 +7422,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
@@ -7442,7 +7442,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
@@ -7462,7 +7462,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
@@ -7482,7 +7482,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
       <c r="D19" s="3"/>
       <c r="E19" s="7"/>
@@ -7502,7 +7502,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
       <c r="D20" s="3"/>
       <c r="E20" s="7"/>
@@ -7522,7 +7522,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C21" s="3"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -7542,12 +7542,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.3">
       <c r="AF22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.3">
       <c r="AG23" t="s">
         <v>137</v>
       </c>
